--- a/控制信号102.xlsx
+++ b/控制信号102.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="25600" windowHeight="14580" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580"/>
   </bookViews>
   <sheets>
     <sheet name="指令译码" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="345">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -581,22 +581,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Sign</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>no</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Sign</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sign</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>T</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -609,14 +597,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Zero</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sign</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -642,10 +622,6 @@
   </si>
   <si>
     <t>imm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sign</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1152,10 +1128,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>no</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ry</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1297,6 +1269,78 @@
   </si>
   <si>
     <t>110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1743,25 +1787,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1785,13 +1814,28 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2101,8 +2145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="92" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="92" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2111,7 +2155,7 @@
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="26.6640625" customWidth="1"/>
     <col min="9" max="9" width="14.1640625" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="27" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="12" width="11.1640625" customWidth="1"/>
     <col min="15" max="15" width="8.83203125" style="27"/>
@@ -2122,21 +2166,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="45" t="s">
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="45" t="s">
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="Q1" s="49"/>
+      <c r="Q1" s="44"/>
       <c r="R1" s="11" t="s">
         <v>134</v>
       </c>
@@ -2147,11 +2191,11 @@
       <c r="I2" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="26" t="s">
         <v>127</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="L2" s="14" t="s">
         <v>111</v>
@@ -2172,7 +2216,7 @@
         <v>121</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="S2" s="14" t="s">
         <v>124</v>
@@ -2213,7 +2257,7 @@
         <v>112</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>113</v>
@@ -2262,15 +2306,15 @@
       <c r="F4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="51"/>
+      <c r="H4" s="46"/>
       <c r="I4" s="14">
         <v>1</v>
       </c>
-      <c r="J4" s="14" t="s">
-        <v>140</v>
+      <c r="J4" s="26">
+        <v>110</v>
       </c>
       <c r="K4" s="14" t="s">
         <v>135</v>
@@ -2285,7 +2329,7 @@
         <v>69</v>
       </c>
       <c r="O4" s="26" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="P4" s="14">
         <v>0</v>
@@ -2331,8 +2375,8 @@
       <c r="I5" s="14">
         <v>1</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>140</v>
+      <c r="J5" s="26" t="s">
+        <v>327</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>138</v>
@@ -2347,7 +2391,7 @@
         <v>69</v>
       </c>
       <c r="O5" s="26" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="P5" s="14">
         <v>0</v>
@@ -2384,15 +2428,15 @@
       <c r="F6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="38"/>
+      <c r="H6" s="48"/>
       <c r="I6" s="14">
         <v>1</v>
       </c>
-      <c r="J6" s="14" t="s">
-        <v>140</v>
+      <c r="J6" s="26" t="s">
+        <v>328</v>
       </c>
       <c r="K6" s="14" t="s">
         <v>141</v>
@@ -2407,7 +2451,7 @@
         <v>143</v>
       </c>
       <c r="O6" s="26" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="P6" s="14">
         <v>0</v>
@@ -2453,8 +2497,8 @@
       <c r="I7" s="14">
         <v>1</v>
       </c>
-      <c r="J7" s="14" t="s">
-        <v>138</v>
+      <c r="J7" s="26" t="s">
+        <v>329</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>138</v>
@@ -2469,7 +2513,7 @@
         <v>146</v>
       </c>
       <c r="O7" s="26" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="P7" s="14">
         <v>0</v>
@@ -2515,8 +2559,8 @@
       <c r="I8" s="14">
         <v>1</v>
       </c>
-      <c r="J8" s="14" t="s">
-        <v>138</v>
+      <c r="J8" s="26" t="s">
+        <v>330</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>138</v>
@@ -2531,7 +2575,7 @@
         <v>147</v>
       </c>
       <c r="O8" s="26" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="P8" s="14">
         <v>0</v>
@@ -2565,19 +2609,19 @@
       <c r="E9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="41"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="51"/>
       <c r="I9" s="14">
         <v>0</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="K9" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>149</v>
       </c>
       <c r="L9" s="14" t="s">
         <v>138</v>
@@ -2589,7 +2633,7 @@
         <v>138</v>
       </c>
       <c r="O9" s="26" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="P9" s="14">
         <v>0</v>
@@ -2626,21 +2670,21 @@
       <c r="F10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="41"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="14">
         <v>0</v>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>148</v>
+      <c r="J10" s="26" t="s">
+        <v>332</v>
       </c>
       <c r="K10" s="14" t="s">
         <v>138</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M10" s="14" t="s">
         <v>137</v>
@@ -2649,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="26" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="P10" s="14">
         <v>0</v>
@@ -2686,21 +2730,21 @@
       <c r="F11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="41"/>
+      <c r="H11" s="51"/>
       <c r="I11" s="14">
         <v>0</v>
       </c>
-      <c r="J11" s="14" t="s">
-        <v>150</v>
+      <c r="J11" s="26" t="s">
+        <v>333</v>
       </c>
       <c r="K11" s="14" t="s">
         <v>138</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M11" s="14" t="s">
         <v>137</v>
@@ -2709,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="26" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="P11" s="14">
         <v>0</v>
@@ -2746,30 +2790,30 @@
       <c r="F12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="42"/>
+      <c r="H12" s="52"/>
       <c r="I12" s="14">
         <v>0</v>
       </c>
-      <c r="J12" s="14" t="s">
-        <v>151</v>
+      <c r="J12" s="26" t="s">
+        <v>328</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L12" s="14" t="s">
         <v>138</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N12" s="14">
         <v>0</v>
       </c>
       <c r="O12" s="26" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="P12" s="14">
         <v>0</v>
@@ -2815,14 +2859,14 @@
       <c r="I13" s="14">
         <v>1</v>
       </c>
-      <c r="J13" s="14" t="s">
-        <v>138</v>
+      <c r="J13" s="26" t="s">
+        <v>334</v>
       </c>
       <c r="K13" s="14" t="s">
         <v>138</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M13" s="14" t="s">
         <v>145</v>
@@ -2831,7 +2875,7 @@
         <v>139</v>
       </c>
       <c r="O13" s="26" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="P13" s="14">
         <v>0</v>
@@ -2868,30 +2912,30 @@
       <c r="F14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="43"/>
+      <c r="H14" s="53"/>
       <c r="I14" s="14">
         <v>0</v>
       </c>
-      <c r="J14" s="14" t="s">
-        <v>138</v>
+      <c r="J14" s="26" t="s">
+        <v>334</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L14" s="14" t="s">
         <v>138</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N14" s="14" t="s">
         <v>138</v>
       </c>
       <c r="O14" s="26" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="P14" s="14">
         <v>0</v>
@@ -2928,15 +2972,15 @@
       <c r="F15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="48"/>
       <c r="I15" s="14">
         <v>1</v>
       </c>
-      <c r="J15" s="14" t="s">
-        <v>155</v>
+      <c r="J15" s="26" t="s">
+        <v>335</v>
       </c>
       <c r="K15" s="14" t="s">
         <v>138</v>
@@ -2951,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="26" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="P15" s="14">
         <v>0</v>
@@ -2997,11 +3041,11 @@
       <c r="I16" s="14">
         <v>1</v>
       </c>
-      <c r="J16" s="14" t="s">
-        <v>156</v>
+      <c r="J16" s="26" t="s">
+        <v>336</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L16" s="14" t="s">
         <v>139</v>
@@ -3013,7 +3057,7 @@
         <v>143</v>
       </c>
       <c r="O16" s="26" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="P16" s="14">
         <v>1</v>
@@ -3050,15 +3094,15 @@
       <c r="F17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="38"/>
+      <c r="H17" s="48"/>
       <c r="I17" s="14">
         <v>1</v>
       </c>
-      <c r="J17" s="14" t="s">
-        <v>150</v>
+      <c r="J17" s="26" t="s">
+        <v>337</v>
       </c>
       <c r="K17" s="14" t="s">
         <v>141</v>
@@ -3067,13 +3111,13 @@
         <v>137</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="N17" s="14" t="s">
         <v>143</v>
       </c>
       <c r="O17" s="26" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="P17" s="14">
         <v>1</v>
@@ -3110,30 +3154,30 @@
       <c r="F18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="38"/>
+      <c r="H18" s="48"/>
       <c r="I18" s="14">
         <v>1</v>
       </c>
-      <c r="J18" s="14" t="s">
-        <v>149</v>
+      <c r="J18" s="26" t="s">
+        <v>334</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L18" s="14" t="s">
         <v>137</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="N18" s="14">
         <v>0</v>
       </c>
       <c r="O18" s="26" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="P18" s="14">
         <v>0</v>
@@ -3170,30 +3214,30 @@
       <c r="F19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="H19" s="43"/>
+      <c r="H19" s="53"/>
       <c r="I19" s="14">
         <v>1</v>
       </c>
-      <c r="J19" s="14" t="s">
-        <v>149</v>
+      <c r="J19" s="26" t="s">
+        <v>338</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L19" s="14" t="s">
         <v>145</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="N19" s="14">
         <v>0</v>
       </c>
       <c r="O19" s="26" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="P19" s="14">
         <v>0</v>
@@ -3230,21 +3274,21 @@
       <c r="F20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="38"/>
+      <c r="H20" s="48"/>
       <c r="I20" s="14">
         <v>1</v>
       </c>
-      <c r="J20" s="14" t="s">
-        <v>149</v>
+      <c r="J20" s="26" t="s">
+        <v>339</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="M20" s="14" t="s">
         <v>145</v>
@@ -3253,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="26" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="P20" s="14">
         <v>0</v>
@@ -3299,14 +3343,14 @@
       <c r="I21" s="14">
         <v>1</v>
       </c>
-      <c r="J21" s="14" t="s">
-        <v>154</v>
+      <c r="J21" s="26" t="s">
+        <v>340</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M21" s="14" t="s">
         <v>145</v>
@@ -3315,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="26" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="P21" s="14">
         <v>0</v>
@@ -3347,13 +3391,13 @@
       <c r="G22" s="7"/>
       <c r="H22" s="8"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
+      <c r="J22" s="26"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
       <c r="O22" s="26" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="P22" s="14"/>
       <c r="Q22" s="14"/>
@@ -3389,11 +3433,11 @@
       <c r="I23" s="14">
         <v>1</v>
       </c>
-      <c r="J23" s="14" t="s">
-        <v>149</v>
+      <c r="J23" s="26" t="s">
+        <v>334</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L23" s="14" t="s">
         <v>145</v>
@@ -3405,7 +3449,7 @@
         <v>147</v>
       </c>
       <c r="O23" s="26" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="P23" s="14">
         <v>0</v>
@@ -3451,11 +3495,11 @@
       <c r="I24" s="14">
         <v>1</v>
       </c>
-      <c r="J24" s="14" t="s">
-        <v>138</v>
+      <c r="J24" s="26" t="s">
+        <v>343</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L24" s="14" t="s">
         <v>137</v>
@@ -3467,7 +3511,7 @@
         <v>69</v>
       </c>
       <c r="O24" s="26" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="P24" s="14">
         <v>0</v>
@@ -3513,8 +3557,8 @@
       <c r="I25" s="14">
         <v>1</v>
       </c>
-      <c r="J25" s="14" t="s">
-        <v>138</v>
+      <c r="J25" s="26" t="s">
+        <v>344</v>
       </c>
       <c r="K25" s="14" t="s">
         <v>138</v>
@@ -3526,10 +3570,10 @@
         <v>139</v>
       </c>
       <c r="N25" s="14" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="O25" s="26" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="P25" s="14">
         <v>0</v>
@@ -3575,8 +3619,8 @@
       <c r="I26" s="14">
         <v>1</v>
       </c>
-      <c r="J26" s="14" t="s">
-        <v>138</v>
+      <c r="J26" s="26" t="s">
+        <v>334</v>
       </c>
       <c r="K26" s="14" t="s">
         <v>138</v>
@@ -3591,7 +3635,7 @@
         <v>147</v>
       </c>
       <c r="O26" s="26" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="P26" s="14">
         <v>0</v>
@@ -3635,23 +3679,23 @@
       <c r="I27" s="14">
         <v>0</v>
       </c>
-      <c r="J27" s="14" t="s">
-        <v>164</v>
+      <c r="J27" s="26" t="s">
+        <v>336</v>
       </c>
       <c r="K27" s="14" t="s">
         <v>138</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>137</v>
       </c>
       <c r="N27" s="14" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="O27" s="26" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="P27" s="14">
         <v>0</v>
@@ -3688,18 +3732,18 @@
       <c r="F28" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="G28" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="39"/>
+      <c r="H28" s="49"/>
       <c r="I28" s="14">
         <v>0</v>
       </c>
-      <c r="J28" s="14" t="s">
-        <v>164</v>
+      <c r="J28" s="26" t="s">
+        <v>328</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L28" s="14" t="s">
         <v>138</v>
@@ -3711,7 +3755,7 @@
         <v>143</v>
       </c>
       <c r="O28" s="26" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="P28" s="14">
         <v>0</v>
@@ -3734,13 +3778,13 @@
         <v>26</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>50</v>
@@ -3752,28 +3796,28 @@
         <v>44</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="I29" s="14">
         <v>1</v>
       </c>
-      <c r="J29" s="14" t="s">
-        <v>149</v>
+      <c r="J29" s="26" t="s">
+        <v>334</v>
       </c>
       <c r="K29" s="14" t="s">
         <v>138</v>
       </c>
       <c r="L29" s="28" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="N29" s="14" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="O29" s="26" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="P29" s="14">
         <v>0</v>
@@ -3796,13 +3840,13 @@
         <v>27</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>65</v>
@@ -3814,13 +3858,13 @@
         <v>44</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="I30" s="14">
         <v>1</v>
       </c>
-      <c r="J30" s="14" t="s">
-        <v>149</v>
+      <c r="J30" s="26" t="s">
+        <v>334</v>
       </c>
       <c r="K30" s="14" t="s">
         <v>138</v>
@@ -3835,7 +3879,7 @@
         <v>137</v>
       </c>
       <c r="O30" s="26" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="P30" s="14">
         <v>0</v>
@@ -3858,16 +3902,16 @@
         <v>28</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>34</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>41</v>
@@ -3876,28 +3920,28 @@
         <v>44</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="I31" s="14">
         <v>1</v>
       </c>
-      <c r="J31" s="14" t="s">
-        <v>297</v>
+      <c r="J31" s="26" t="s">
+        <v>334</v>
       </c>
       <c r="K31" s="14" t="s">
         <v>138</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M31" s="14" t="s">
         <v>137</v>
       </c>
       <c r="N31" s="14" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="O31" s="26" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="P31" s="14">
         <v>0</v>
@@ -3943,8 +3987,8 @@
       <c r="I32" s="14">
         <v>1</v>
       </c>
-      <c r="J32" s="14" t="s">
-        <v>138</v>
+      <c r="J32" s="26" t="s">
+        <v>341</v>
       </c>
       <c r="K32" s="14" t="s">
         <v>138</v>
@@ -3959,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="26" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="P32" s="14">
         <v>0</v>
@@ -3982,7 +4026,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>34</v>
@@ -3991,35 +4035,35 @@
         <v>107</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="38" t="s">
+      <c r="G33" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="H33" s="39"/>
+      <c r="H33" s="49"/>
       <c r="I33" s="14">
         <v>1</v>
       </c>
-      <c r="J33" s="14" t="s">
-        <v>140</v>
+      <c r="J33" s="26" t="s">
+        <v>342</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="M33" s="14" t="s">
         <v>137</v>
       </c>
       <c r="N33" s="14" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="O33" s="26" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="P33" s="14">
         <v>0</v>
@@ -4039,11 +4083,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G6:H6"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="G10:H10"/>
@@ -4056,6 +4095,11 @@
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4080,15 +4124,15 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="30" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="29" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -4096,7 +4140,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>2</v>
@@ -4107,7 +4151,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>3</v>
@@ -4118,7 +4162,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>11</v>
@@ -4129,7 +4173,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>4</v>
@@ -4140,7 +4184,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>5</v>
@@ -4151,7 +4195,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>6</v>
@@ -4162,7 +4206,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>7</v>
@@ -4173,7 +4217,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>8</v>
@@ -4184,7 +4228,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>9</v>
@@ -4195,7 +4239,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>10</v>
@@ -4206,7 +4250,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>12</v>
@@ -4217,7 +4261,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>13</v>
@@ -4228,7 +4272,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>14</v>
@@ -4239,7 +4283,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>25</v>
@@ -4250,7 +4294,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>15</v>
@@ -4261,7 +4305,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>16</v>
@@ -4272,7 +4316,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>17</v>
@@ -4283,7 +4327,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>18</v>
@@ -4294,7 +4338,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>19</v>
@@ -4305,7 +4349,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>20</v>
@@ -4316,7 +4360,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>21</v>
@@ -4327,7 +4371,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>22</v>
@@ -4338,7 +4382,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>23</v>
@@ -4349,7 +4393,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>24</v>
@@ -4360,7 +4404,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>26</v>
@@ -4368,31 +4412,31 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B29" s="29" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B30" s="29" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B31" s="29" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B32" s="29" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>39</v>
@@ -4400,10 +4444,10 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" s="29" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.15">
@@ -4423,7 +4467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -4433,122 +4477,122 @@
     <col min="2" max="2" width="16.6640625" style="25" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" style="25" customWidth="1"/>
     <col min="4" max="14" width="8.83203125" style="25"/>
-    <col min="15" max="15" width="8.83203125" style="53"/>
+    <col min="15" max="15" width="8.83203125" style="38"/>
     <col min="16" max="16384" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="E2" s="25" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="N2" s="25" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="B3" s="25" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="N3" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="O3" s="54" t="s">
-        <v>313</v>
+        <v>298</v>
+      </c>
+      <c r="O3" s="39" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="B4" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="N4" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="O4" s="54" t="s">
-        <v>314</v>
+        <v>299</v>
+      </c>
+      <c r="O4" s="39" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="N5" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="O5" s="54" t="s">
-        <v>315</v>
+        <v>300</v>
+      </c>
+      <c r="O5" s="39" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="B6" s="25" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>73</v>
@@ -4556,177 +4600,177 @@
       <c r="N6" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="54" t="s">
-        <v>316</v>
+      <c r="O6" s="39" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="B7" s="25" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="N7" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="O7" s="54" t="s">
-        <v>224</v>
+        <v>301</v>
+      </c>
+      <c r="O7" s="39" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="B8" s="25" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="N8" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="O8" s="54" t="s">
-        <v>317</v>
+        <v>281</v>
+      </c>
+      <c r="O8" s="39" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="B9" s="25" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="N9" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="O9" s="54" t="s">
-        <v>318</v>
+        <v>280</v>
+      </c>
+      <c r="O9" s="39" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="N10" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="O10" s="54" t="s">
-        <v>240</v>
+        <v>302</v>
+      </c>
+      <c r="O10" s="39" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="N11" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="O11" s="54" t="s">
-        <v>319</v>
+        <v>303</v>
+      </c>
+      <c r="O11" s="39" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52" t="s">
-        <v>208</v>
-      </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
+      <c r="A12" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
       <c r="N12" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="O12" s="54" t="s">
-        <v>320</v>
+        <v>304</v>
+      </c>
+      <c r="O12" s="39" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
+      <c r="A13" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
       <c r="E13" s="25" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="17" x14ac:dyDescent="0.15">
-      <c r="B14" s="53" t="s">
-        <v>321</v>
+      <c r="B14" s="38" t="s">
+        <v>314</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="A15" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="B15" s="53" t="s">
-        <v>328</v>
+        <v>320</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>321</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="17" x14ac:dyDescent="0.15">
-      <c r="B16" s="53" t="s">
-        <v>329</v>
+      <c r="B16" s="38" t="s">
+        <v>322</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="B17" s="53"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="6"/>
       <c r="J17" s="25" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>73</v>
@@ -4736,51 +4780,51 @@
       <c r="A18" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="J18" s="25" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="J19" s="25" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="B20" s="53" t="s">
-        <v>184</v>
+      <c r="B20" s="38" t="s">
+        <v>178</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="B21" s="53" t="s">
-        <v>326</v>
+      <c r="B21" s="38" t="s">
+        <v>319</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="B22" s="53"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="1"/>
     </row>
   </sheetData>
@@ -4809,27 +4853,27 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C1" s="29" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="29" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
@@ -4840,13 +4884,13 @@
         <v>28</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F3" s="30" t="s">
         <v>27</v>
@@ -4865,13 +4909,13 @@
         <v>28</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>29</v>
@@ -4887,16 +4931,16 @@
         <v>103</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>27</v>
@@ -4915,16 +4959,16 @@
         <v>28</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
@@ -4937,19 +4981,19 @@
         <v>105</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E7" s="30" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="I7" s="30"/>
       <c r="J7" s="30"/>
@@ -4962,19 +5006,19 @@
         <v>201</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
@@ -4987,16 +5031,16 @@
         <v>202</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C9" s="30" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F9" s="30" t="s">
         <v>29</v>
@@ -5012,16 +5056,16 @@
         <v>203</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F10" s="30" t="s">
         <v>29</v>
@@ -5037,19 +5081,19 @@
         <v>204</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="E11" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="E11" s="30" t="s">
-        <v>254</v>
-      </c>
       <c r="F11" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
@@ -5062,10 +5106,10 @@
         <v>205</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>31</v>
@@ -5074,7 +5118,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="30"/>
@@ -5087,13 +5131,13 @@
         <v>206</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>30</v>
@@ -5112,16 +5156,16 @@
         <v>207</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F14" s="32" t="s">
         <v>29</v>
@@ -5138,10 +5182,10 @@
         <v>208</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D15" s="32" t="s">
         <v>28</v>
@@ -5150,7 +5194,7 @@
         <v>30</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H15" s="33"/>
       <c r="I15" s="34"/>
@@ -5167,10 +5211,10 @@
         <v>28</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>29</v>
@@ -5190,19 +5234,19 @@
         <v>302</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H17" s="33"/>
       <c r="I17" s="34"/>
@@ -5216,16 +5260,16 @@
         <v>303</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>29</v>
@@ -5242,19 +5286,19 @@
         <v>304</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H19" s="33"/>
       <c r="I19" s="34"/>
@@ -5268,19 +5312,19 @@
         <v>305</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>31</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H20" s="33"/>
       <c r="I20" s="34"/>
@@ -5294,16 +5338,16 @@
         <v>306</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>30</v>
@@ -5320,16 +5364,16 @@
         <v>307</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>29</v>
@@ -5345,16 +5389,16 @@
         <v>308</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C23" s="30" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>27</v>
@@ -5370,16 +5414,16 @@
         <v>309</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>27</v>
@@ -5398,16 +5442,16 @@
         <v>28</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="I25" s="30"/>
       <c r="J25" s="30"/>
@@ -5420,16 +5464,16 @@
         <v>402</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>27</v>
@@ -5448,16 +5492,16 @@
         <v>28</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="I27" s="30"/>
       <c r="J27" s="30"/>
@@ -5470,19 +5514,19 @@
         <v>404</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C28" s="30" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>27</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
@@ -5495,13 +5539,13 @@
         <v>405</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E29" s="30" t="s">
         <v>29</v>
@@ -5520,19 +5564,19 @@
         <v>406</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E30" s="30" t="s">
         <v>28</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="I30" s="30"/>
       <c r="J30" s="30"/>
@@ -5545,19 +5589,19 @@
         <v>407</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="I31" s="30"/>
       <c r="J31" s="30"/>
@@ -5570,19 +5614,19 @@
         <v>408</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D32" s="30" t="s">
         <v>28</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
@@ -5595,19 +5639,19 @@
         <v>409</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D33" s="30" t="s">
         <v>31</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I33" s="30"/>
       <c r="J33" s="30"/>
@@ -5623,16 +5667,16 @@
         <v>28</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E34" s="30" t="s">
         <v>27</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="I34" s="30"/>
       <c r="J34" s="30"/>
@@ -5645,16 +5689,16 @@
         <v>411</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F35" s="30" t="s">
         <v>29</v>
@@ -5673,13 +5717,13 @@
         <v>28</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D36" s="30" t="s">
         <v>30</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F36" s="30" t="s">
         <v>27</v>
@@ -5698,16 +5742,16 @@
         <v>28</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="I37" s="30"/>
       <c r="J37" s="30"/>
@@ -5720,19 +5764,19 @@
         <v>502</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E38" s="30" t="s">
         <v>27</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="I38" s="30"/>
       <c r="J38" s="30"/>
@@ -5745,19 +5789,19 @@
         <v>503</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C39" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="D39" s="30" t="s">
         <v>248</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>254</v>
       </c>
       <c r="E39" s="30" t="s">
         <v>27</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="I39" s="30"/>
       <c r="J39" s="30"/>
@@ -5770,16 +5814,16 @@
         <v>504</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F40" s="30" t="s">
         <v>30</v>
@@ -5795,19 +5839,19 @@
         <v>505</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D41" s="30" t="s">
         <v>28</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F41" s="30" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="I41" s="30"/>
       <c r="J41" s="30"/>
@@ -5820,19 +5864,19 @@
         <v>506</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D42" s="30" t="s">
         <v>28</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F42" s="30" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="I42" s="30"/>
       <c r="J42" s="30"/>
@@ -5848,16 +5892,16 @@
         <v>28</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D43" s="30" t="s">
         <v>31</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F43" s="30" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="I43" s="30"/>
       <c r="J43" s="30"/>
@@ -5870,16 +5914,16 @@
         <v>508</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C44" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F44" s="30" t="s">
         <v>27</v>
@@ -5895,19 +5939,19 @@
         <v>509</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E45" s="30" t="s">
         <v>30</v>
       </c>
       <c r="F45" s="30" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>

--- a/控制信号102.xlsx
+++ b/控制信号102.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="指令译码" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="366">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1341,6 +1341,90 @@
   </si>
   <si>
     <t>001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1793,6 +1877,27 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1812,27 +1917,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2145,8 +2229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="92" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2166,21 +2250,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="40" t="s">
+      <c r="J1" s="48"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="40" t="s">
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="Q1" s="44"/>
+      <c r="Q1" s="51"/>
       <c r="R1" s="11" t="s">
         <v>134</v>
       </c>
@@ -2306,10 +2390,10 @@
       <c r="F4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="46"/>
+      <c r="H4" s="53"/>
       <c r="I4" s="14">
         <v>1</v>
       </c>
@@ -2428,10 +2512,10 @@
       <c r="F6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="48"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="14">
         <v>1</v>
       </c>
@@ -2609,11 +2693,11 @@
       <c r="E9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="50"/>
-      <c r="H9" s="51"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
       <c r="I9" s="14">
         <v>0</v>
       </c>
@@ -2670,10 +2754,10 @@
       <c r="F10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="51"/>
+      <c r="H10" s="43"/>
       <c r="I10" s="14">
         <v>0</v>
       </c>
@@ -2730,10 +2814,10 @@
       <c r="F11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="51"/>
+      <c r="H11" s="43"/>
       <c r="I11" s="14">
         <v>0</v>
       </c>
@@ -2790,10 +2874,10 @@
       <c r="F12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="52"/>
+      <c r="H12" s="44"/>
       <c r="I12" s="14">
         <v>0</v>
       </c>
@@ -2912,10 +2996,10 @@
       <c r="F14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="53"/>
+      <c r="H14" s="45"/>
       <c r="I14" s="14">
         <v>0</v>
       </c>
@@ -2972,10 +3056,10 @@
       <c r="F15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="48"/>
+      <c r="H15" s="40"/>
       <c r="I15" s="14">
         <v>1</v>
       </c>
@@ -3094,10 +3178,10 @@
       <c r="F17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="47" t="s">
+      <c r="G17" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="48"/>
+      <c r="H17" s="40"/>
       <c r="I17" s="14">
         <v>1</v>
       </c>
@@ -3154,10 +3238,10 @@
       <c r="F18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="47" t="s">
+      <c r="G18" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="48"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="14">
         <v>1</v>
       </c>
@@ -3214,10 +3298,10 @@
       <c r="F19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="48" t="s">
+      <c r="G19" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="H19" s="53"/>
+      <c r="H19" s="45"/>
       <c r="I19" s="14">
         <v>1</v>
       </c>
@@ -3274,10 +3358,10 @@
       <c r="F20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="47" t="s">
+      <c r="G20" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="48"/>
+      <c r="H20" s="40"/>
       <c r="I20" s="14">
         <v>1</v>
       </c>
@@ -3732,10 +3816,10 @@
       <c r="F28" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="48" t="s">
+      <c r="G28" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="49"/>
+      <c r="H28" s="41"/>
       <c r="I28" s="14">
         <v>0</v>
       </c>
@@ -4040,10 +4124,10 @@
       <c r="F33" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="48" t="s">
+      <c r="G33" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="H33" s="49"/>
+      <c r="H33" s="41"/>
       <c r="I33" s="14">
         <v>1</v>
       </c>
@@ -4083,6 +4167,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="G10:H10"/>
@@ -4095,11 +4184,6 @@
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4465,10 +4549,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4699,6 +4783,15 @@
       <c r="K13" s="4" t="s">
         <v>170</v>
       </c>
+      <c r="M13" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="N13" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="O13" s="39" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="B14" s="38" t="s">
@@ -4719,6 +4812,12 @@
       <c r="K14" s="6" t="s">
         <v>171</v>
       </c>
+      <c r="N14" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="O14" s="39" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="15" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="A15" s="25" t="s">
@@ -4742,6 +4841,12 @@
       <c r="K15" s="6" t="s">
         <v>172</v>
       </c>
+      <c r="N15" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="O15" s="39" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="16" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="B16" s="38" t="s">
@@ -4765,8 +4870,14 @@
       <c r="K16" s="6" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+      <c r="N16" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="O16" s="39" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="B17" s="38"/>
       <c r="C17" s="6"/>
       <c r="J17" s="25" t="s">
@@ -4775,8 +4886,14 @@
       <c r="K17" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+      <c r="N17" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="O17" s="39" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="A18" s="37" t="s">
         <v>140</v>
       </c>
@@ -4792,8 +4909,14 @@
       <c r="K18" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+      <c r="N18" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="O18" s="39" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="B19" s="38" t="s">
         <v>318</v>
       </c>
@@ -4806,26 +4929,58 @@
       <c r="K19" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+      <c r="N19" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="O19" s="39" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="B20" s="38" t="s">
         <v>178</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+      <c r="N20" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="O20" s="39" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="B21" s="38" t="s">
         <v>319</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+      <c r="N21" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="O21" s="39" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="B22" s="38"/>
       <c r="C22" s="1"/>
+      <c r="N22" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="O22" s="39" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="17" x14ac:dyDescent="0.15">
+      <c r="N23" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="O23" s="39" t="s">
+        <v>365</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
